--- a/Assortment.xlsx
+++ b/Assortment.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5835C2F0-7225-48AD-B39E-5C07E4C3A93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{138332C3-FBBC-40CB-BC33-C10B3ACFB1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8D9ADDF-2F9D-A246-BFC3-DB940B1011F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +36,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
@@ -56,6 +57,20 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </cellMetadata>
   <valueMetadata count="2">
     <bk>
       <rc t="1" v="0"/>
@@ -151,9 +166,6 @@
     <t>Вишневые червячки</t>
   </si>
   <si>
-    <t xml:space="preserve">Грейпфрут смородина </t>
-  </si>
-  <si>
     <t xml:space="preserve">Дыня персик </t>
   </si>
   <si>
@@ -220,8 +232,11 @@
     <t>0 шт</t>
   </si>
   <si>
+    <t>2 мл</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve"> 15 </t>
+      <t xml:space="preserve"> 10 </t>
     </r>
     <r>
       <rPr>
@@ -234,7 +249,7 @@
     </r>
   </si>
   <si>
-    <t>2 мл</t>
+    <t xml:space="preserve">Грейпфрут черная смородина </t>
   </si>
 </sst>
 </file>
@@ -572,6 +587,27 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,27 +615,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1017,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21782AC-EE1F-3840-83A1-088A2116F208}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="164" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1030,23 +1045,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" s="13" customFormat="1" ht="20.25" thickTop="1" thickBot="1">
@@ -1065,7 +1080,10 @@
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">F3:I31</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="14" t="s">
@@ -1080,7 +1098,7 @@
       <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
@@ -1091,12 +1109,12 @@
         <v>7</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
@@ -1106,13 +1124,13 @@
       <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
@@ -1128,7 +1146,7 @@
       <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
@@ -1139,17 +1157,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A9" s="14" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>7</v>
@@ -1160,12 +1178,12 @@
       <c r="D9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A10" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>7</v>
@@ -1176,44 +1194,44 @@
       <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>49</v>
+      <c r="C12" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A13" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>7</v>
@@ -1224,62 +1242,62 @@
       <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="24" t="e" vm="1">
+      <c r="E13" s="31" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A14" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A15" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A16" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>7</v>
@@ -1290,28 +1308,28 @@
       <c r="D17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A18" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A19" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>7</v>
@@ -1322,12 +1340,12 @@
       <c r="D19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A20" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>7</v>
@@ -1338,12 +1356,12 @@
       <c r="D20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A21" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>7</v>
@@ -1354,28 +1372,28 @@
       <c r="D21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A22" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A23" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>7</v>
@@ -1386,44 +1404,44 @@
       <c r="D23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="25"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A24" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A25" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A26" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>7</v>
@@ -1434,28 +1452,28 @@
       <c r="D26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="25"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A27" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="25"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A28" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>7</v>
@@ -1466,33 +1484,33 @@
       <c r="D28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
       <c r="A29" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="26"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="20.25" thickTop="1" thickBot="1">
@@ -1526,7 +1544,7 @@
       <c r="D32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="24" t="e" vm="2">
+      <c r="E32" s="31" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="F32" s="3"/>
@@ -1544,7 +1562,7 @@
       <c r="D33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
@@ -1560,7 +1578,7 @@
       <c r="D34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="25"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
@@ -1576,7 +1594,7 @@
       <c r="D35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="25"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
@@ -1587,12 +1605,12 @@
         <v>7</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="25"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
@@ -1603,12 +1621,12 @@
         <v>7</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="25"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
@@ -1619,32 +1637,32 @@
         <v>7</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="26"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" s="8" customFormat="1" ht="25.5" thickTop="1" thickBot="1">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" ht="20.25" thickTop="1" thickBot="1">
       <c r="A40" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -1660,7 +1678,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>50</v>
